--- a/03/poteto30.xlsx
+++ b/03/poteto30.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/NBPlan/TTC/授業資料/2025年度/1020201.アルゴリズム２/03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D5474F-C709-934C-A7ED-E9FB79131E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA5DB9E-5567-9D49-9C5B-0A44033E0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="6400" windowWidth="27500" windowHeight="16360" xr2:uid="{1AF82A5B-4E71-A64C-8DB5-C7045A0B925E}"/>
+    <workbookView xWindow="17000" yWindow="9700" windowWidth="32040" windowHeight="16360" activeTab="2" xr2:uid="{1AF82A5B-4E71-A64C-8DB5-C7045A0B925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$211</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1:$B$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$F$3:$F$19</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$1:$B$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$1:$B$228</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$F$3:$F$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$G$23</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$F$3:$F$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$E$3:$E$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$F$3:$F$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$E$3:$E$19</definedName>
     <definedName name="potato_31students" localSheetId="0">Sheet1!$A$1:$E$211</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -53,8 +67,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="54">
   <si>
     <t>学生ID</t>
   </si>
@@ -214,12 +250,22 @@
   <si>
     <t>S30</t>
   </si>
+  <si>
+    <t>全数の平均</t>
+    <rPh sb="0" eb="2">
+      <t>ゼn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘイキn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +278,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -273,11 +327,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -295,6 +352,3829 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>火</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>水</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>木</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>土</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>日</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>131.03333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.96666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.03333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.69999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCB2-804B-B4F4-A55F7436B51E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2094063040"/>
+        <c:axId val="2068536768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094063040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068536768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2068536768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094063040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5479-6B41-B695-D8CCDF14AF04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2027436928"/>
+        <c:axId val="2027430656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2027436928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027430656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027430656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027436928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>ポテト</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>(M)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>の重量</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{58E92524-E393-E542-8C44-6CC19000D4EE}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E9328DEC-9BA4-3B4D-94E3-B161ADB377BA}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{83EB92A4-EB0B-9D45-914F-A9B3C42D751C}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="グラフ 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F10DF4B-118C-E169-C004-AFD585ABFAC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5778500" y="53479700"/>
+              <a:ext cx="5073650" cy="4241800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3FB75D-AD33-3172-4099-F7014529563F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="グラフ 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3EEF37-A902-99EA-A9DA-06F6258F6E7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8267700" y="527050"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="グラフ 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7314890C-0CFD-96E1-B2EF-1C85654D9009}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2590800" y="311150"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="グラフ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF69B4C-FB9C-E101-ACE0-D72F63EC4AA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54A5406-1C9E-FA45-9A5C-845DD2913390}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -613,7 +4493,7 @@
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +4510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -646,8 +4526,15 @@
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(C2:C211)</f>
+        <v>133.15238095238095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -664,7 +4551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -680,8 +4567,29 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -697,8 +4605,36 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <f>AVERAGEIF(B:B,G4,C:C)</f>
+        <v>131.03333333333333</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGEIF(B:B,H4,C:C)</f>
+        <v>133.96666666666667</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGEIF(B:B,I4,C:C)</f>
+        <v>131.03333333333333</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGEIF(B:B,J4,C:C)</f>
+        <v>131.66666666666666</v>
+      </c>
+      <c r="K5" s="2">
+        <f>AVERAGEIF(B:B,K4,C:C)</f>
+        <v>131.16666666666666</v>
+      </c>
+      <c r="L5" s="2">
+        <f>AVERAGEIF(B:B,L4,C:C)</f>
+        <v>135.5</v>
+      </c>
+      <c r="M5" s="2">
+        <f>AVERAGEIF(B:B,M4,C:C)</f>
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -715,7 +4651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -732,7 +4668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -749,7 +4685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -766,7 +4702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -783,7 +4719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -800,7 +4736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -817,7 +4753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -834,7 +4770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -851,7 +4787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -868,7 +4804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4203,5 +8139,3664 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392C38BC-CA06-FF47-A60C-63CF92F0EF04}">
+  <dimension ref="A1:B228"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" aca="1" ref="B1" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.06666666666666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.23333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>124</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.23333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>140</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.30000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>119</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>131</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>132</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.26666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>139</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.26666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>139</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>134</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.43333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>130</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.76666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>141</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>124</v>
+      </c>
+      <c r="B13" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>142</v>
+      </c>
+      <c r="B14" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>140</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.63333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>124</v>
+      </c>
+      <c r="B16" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.86666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>139</v>
+      </c>
+      <c r="B17" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.83333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>125</v>
+      </c>
+      <c r="B18" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>132</v>
+      </c>
+      <c r="B19" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.06666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>134</v>
+      </c>
+      <c r="B20" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>133</v>
+      </c>
+      <c r="B21" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.46666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>139</v>
+      </c>
+      <c r="B22" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.53333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>121</v>
+      </c>
+      <c r="B23" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.13333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>138</v>
+      </c>
+      <c r="B24" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.03333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>136</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.30000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>133</v>
+      </c>
+      <c r="B26" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>126</v>
+      </c>
+      <c r="B27" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>139</v>
+      </c>
+      <c r="B28" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>130.93333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>126</v>
+      </c>
+      <c r="B29" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.16666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>138</v>
+      </c>
+      <c r="B30" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.83333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>147</v>
+      </c>
+      <c r="B31" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.43333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>133</v>
+      </c>
+      <c r="B32" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>131</v>
+      </c>
+      <c r="B33" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.46666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>136</v>
+      </c>
+      <c r="B34" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.26666666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>143</v>
+      </c>
+      <c r="B35" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.06666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>142</v>
+      </c>
+      <c r="B36" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.23333333333332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>143</v>
+      </c>
+      <c r="B37" cm="1">
+        <f t="array" aca="1" ref="B37" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.06666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>131</v>
+      </c>
+      <c r="B38" cm="1">
+        <f t="array" aca="1" ref="B38" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.26666666666668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>126</v>
+      </c>
+      <c r="B39" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.06666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>125</v>
+      </c>
+      <c r="B40" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.46666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>128</v>
+      </c>
+      <c r="B41" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.73333333333332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>139</v>
+      </c>
+      <c r="B42" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>140</v>
+      </c>
+      <c r="B43" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.86666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>125</v>
+      </c>
+      <c r="B44" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>128</v>
+      </c>
+      <c r="B45" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.86666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>129</v>
+      </c>
+      <c r="B46" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.76666666666668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>136</v>
+      </c>
+      <c r="B47" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>140</v>
+      </c>
+      <c r="B48" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>146</v>
+      </c>
+      <c r="B49" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.46666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>131</v>
+      </c>
+      <c r="B50" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.46666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>128</v>
+      </c>
+      <c r="B51" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.46666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>127</v>
+      </c>
+      <c r="B52" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>137</v>
+      </c>
+      <c r="B53" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.56666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>125</v>
+      </c>
+      <c r="B54" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>142</v>
+      </c>
+      <c r="B55" cm="1">
+        <f t="array" aca="1" ref="B55" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.96666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>149</v>
+      </c>
+      <c r="B56" cm="1">
+        <f t="array" aca="1" ref="B56" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.06666666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>128</v>
+      </c>
+      <c r="B57" cm="1">
+        <f t="array" aca="1" ref="B57" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.53333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>143</v>
+      </c>
+      <c r="B58" cm="1">
+        <f t="array" aca="1" ref="B58" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.13333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>134</v>
+      </c>
+      <c r="B59" cm="1">
+        <f t="array" aca="1" ref="B59" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.16666666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>132</v>
+      </c>
+      <c r="B60" cm="1">
+        <f t="array" aca="1" ref="B60" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>138</v>
+      </c>
+      <c r="B61" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.96666666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>135</v>
+      </c>
+      <c r="B62" cm="1">
+        <f t="array" aca="1" ref="B62" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.26666666666668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>132</v>
+      </c>
+      <c r="B63" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.26666666666668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>129</v>
+      </c>
+      <c r="B64" cm="1">
+        <f t="array" aca="1" ref="B64" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.03333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>126</v>
+      </c>
+      <c r="B65" cm="1">
+        <f t="array" aca="1" ref="B65" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>131</v>
+      </c>
+      <c r="B66" cm="1">
+        <f t="array" aca="1" ref="B66" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.63333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>122</v>
+      </c>
+      <c r="B67" cm="1">
+        <f t="array" aca="1" ref="B67" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.36666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>135</v>
+      </c>
+      <c r="B68" cm="1">
+        <f t="array" aca="1" ref="B68" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.53333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>133</v>
+      </c>
+      <c r="B69" cm="1">
+        <f t="array" aca="1" ref="B69" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.46666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>140</v>
+      </c>
+      <c r="B70" cm="1">
+        <f t="array" aca="1" ref="B70" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>130.06666666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>131</v>
+      </c>
+      <c r="B71" cm="1">
+        <f t="array" aca="1" ref="B71" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.86666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>131</v>
+      </c>
+      <c r="B72" cm="1">
+        <f t="array" aca="1" ref="B72" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>130.69999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>132</v>
+      </c>
+      <c r="B73" cm="1">
+        <f t="array" aca="1" ref="B73" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.93333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>141</v>
+      </c>
+      <c r="B74" cm="1">
+        <f t="array" aca="1" ref="B74" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.93333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>132</v>
+      </c>
+      <c r="B75" cm="1">
+        <f t="array" aca="1" ref="B75" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.23333333333332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>139</v>
+      </c>
+      <c r="B76" cm="1">
+        <f t="array" aca="1" ref="B76" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>125</v>
+      </c>
+      <c r="B77" cm="1">
+        <f t="array" aca="1" ref="B77" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.03333333333333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>132</v>
+      </c>
+      <c r="B78" cm="1">
+        <f t="array" aca="1" ref="B78" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>140</v>
+      </c>
+      <c r="B79" cm="1">
+        <f t="array" aca="1" ref="B79" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.63333333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>128</v>
+      </c>
+      <c r="B80" cm="1">
+        <f t="array" aca="1" ref="B80" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.30000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>131</v>
+      </c>
+      <c r="B81" cm="1">
+        <f t="array" aca="1" ref="B81" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.76666666666668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>137</v>
+      </c>
+      <c r="B82" cm="1">
+        <f t="array" aca="1" ref="B82" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.06666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>126</v>
+      </c>
+      <c r="B83" cm="1">
+        <f t="array" aca="1" ref="B83" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>140</v>
+      </c>
+      <c r="B84" cm="1">
+        <f t="array" aca="1" ref="B84" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.56666666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>126</v>
+      </c>
+      <c r="B85" cm="1">
+        <f t="array" aca="1" ref="B85" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.76666666666668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>132</v>
+      </c>
+      <c r="B86" cm="1">
+        <f t="array" aca="1" ref="B86" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>117</v>
+      </c>
+      <c r="B87" cm="1">
+        <f t="array" aca="1" ref="B87" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.86666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>123</v>
+      </c>
+      <c r="B88" cm="1">
+        <f t="array" aca="1" ref="B88" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.13333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>134</v>
+      </c>
+      <c r="B89" cm="1">
+        <f t="array" aca="1" ref="B89" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.73333333333332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>129</v>
+      </c>
+      <c r="B90" cm="1">
+        <f t="array" aca="1" ref="B90" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>136</v>
+      </c>
+      <c r="B91" cm="1">
+        <f t="array" aca="1" ref="B91" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>132</v>
+      </c>
+      <c r="B92" cm="1">
+        <f t="array" aca="1" ref="B92" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.73333333333332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>110</v>
+      </c>
+      <c r="B93" cm="1">
+        <f t="array" aca="1" ref="B93" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>129</v>
+      </c>
+      <c r="B94" cm="1">
+        <f t="array" aca="1" ref="B94" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>130</v>
+      </c>
+      <c r="B95" cm="1">
+        <f t="array" aca="1" ref="B95" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.23333333333332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>132</v>
+      </c>
+      <c r="B96" cm="1">
+        <f t="array" aca="1" ref="B96" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>124</v>
+      </c>
+      <c r="B97" cm="1">
+        <f t="array" aca="1" ref="B97" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.93333333333334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>132</v>
+      </c>
+      <c r="B98" cm="1">
+        <f t="array" aca="1" ref="B98" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.33333333333334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>130</v>
+      </c>
+      <c r="B99" cm="1">
+        <f t="array" aca="1" ref="B99" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>130.76666666666668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>125</v>
+      </c>
+      <c r="B100" cm="1">
+        <f t="array" aca="1" ref="B100" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.16666666666666</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>129</v>
+      </c>
+      <c r="B101" cm="1">
+        <f t="array" aca="1" ref="B101" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.36666666666667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>130</v>
+      </c>
+      <c r="B102" cm="1">
+        <f t="array" aca="1" ref="B102" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.36666666666667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>141</v>
+      </c>
+      <c r="B103" cm="1">
+        <f t="array" aca="1" ref="B103" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.56666666666666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>140</v>
+      </c>
+      <c r="B104" cm="1">
+        <f t="array" aca="1" ref="B104" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.56666666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>133</v>
+      </c>
+      <c r="B105" cm="1">
+        <f t="array" aca="1" ref="B105" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>134</v>
+      </c>
+      <c r="B106" cm="1">
+        <f t="array" aca="1" ref="B106" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.56666666666666</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>126</v>
+      </c>
+      <c r="B107" cm="1">
+        <f t="array" aca="1" ref="B107" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.16666666666666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>128</v>
+      </c>
+      <c r="B108" cm="1">
+        <f t="array" aca="1" ref="B108" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.83333333333334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>127</v>
+      </c>
+      <c r="B109" cm="1">
+        <f t="array" aca="1" ref="B109" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.30000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>139</v>
+      </c>
+      <c r="B110" cm="1">
+        <f t="array" aca="1" ref="B110" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.83333333333334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>141</v>
+      </c>
+      <c r="B111" cm="1">
+        <f t="array" aca="1" ref="B111" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>135</v>
+      </c>
+      <c r="B112" cm="1">
+        <f t="array" aca="1" ref="B112" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>142</v>
+      </c>
+      <c r="B113" cm="1">
+        <f t="array" aca="1" ref="B113" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.63333333333333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>138</v>
+      </c>
+      <c r="B114" cm="1">
+        <f t="array" aca="1" ref="B114" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.53333333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>131</v>
+      </c>
+      <c r="B115" cm="1">
+        <f t="array" aca="1" ref="B115" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.23333333333332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>134</v>
+      </c>
+      <c r="B116" cm="1">
+        <f t="array" aca="1" ref="B116" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>125</v>
+      </c>
+      <c r="B117" cm="1">
+        <f t="array" aca="1" ref="B117" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.16666666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>128</v>
+      </c>
+      <c r="B118" cm="1">
+        <f t="array" aca="1" ref="B118" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.46666666666667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>133</v>
+      </c>
+      <c r="B119" cm="1">
+        <f t="array" aca="1" ref="B119" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.06666666666666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>122</v>
+      </c>
+      <c r="B120" cm="1">
+        <f t="array" aca="1" ref="B120" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.76666666666668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>142</v>
+      </c>
+      <c r="B121" cm="1">
+        <f t="array" aca="1" ref="B121" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.86666666666667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>132</v>
+      </c>
+      <c r="B122" cm="1">
+        <f t="array" aca="1" ref="B122" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.16666666666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>157</v>
+      </c>
+      <c r="B123" cm="1">
+        <f t="array" aca="1" ref="B123" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.69999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>133</v>
+      </c>
+      <c r="B124" cm="1">
+        <f t="array" aca="1" ref="B124" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.93333333333334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>134</v>
+      </c>
+      <c r="B125" cm="1">
+        <f t="array" aca="1" ref="B125" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.66666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>134</v>
+      </c>
+      <c r="B126" cm="1">
+        <f t="array" aca="1" ref="B126" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.86666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>138</v>
+      </c>
+      <c r="B127" cm="1">
+        <f t="array" aca="1" ref="B127" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>139</v>
+      </c>
+      <c r="B128" cm="1">
+        <f t="array" aca="1" ref="B128" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>132</v>
+      </c>
+      <c r="B129" cm="1">
+        <f t="array" aca="1" ref="B129" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>149</v>
+      </c>
+      <c r="B130" cm="1">
+        <f t="array" aca="1" ref="B130" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.46666666666667</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>134</v>
+      </c>
+      <c r="B131" cm="1">
+        <f t="array" aca="1" ref="B131" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.83333333333334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>124</v>
+      </c>
+      <c r="B132" cm="1">
+        <f t="array" aca="1" ref="B132" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>137</v>
+      </c>
+      <c r="B133" cm="1">
+        <f t="array" aca="1" ref="B133" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.06666666666666</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>125</v>
+      </c>
+      <c r="B134" cm="1">
+        <f t="array" aca="1" ref="B134" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" cm="1">
+        <f t="array" aca="1" ref="B135" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
+      <c r="B136" cm="1">
+        <f t="array" aca="1" ref="B136" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.26666666666668</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>129</v>
+      </c>
+      <c r="B137" cm="1">
+        <f t="array" aca="1" ref="B137" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.26666666666668</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>143</v>
+      </c>
+      <c r="B138" cm="1">
+        <f t="array" aca="1" ref="B138" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.43333333333334</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>142</v>
+      </c>
+      <c r="B139" cm="1">
+        <f t="array" aca="1" ref="B139" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>129</v>
+      </c>
+      <c r="B140" cm="1">
+        <f t="array" aca="1" ref="B140" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.03333333333333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>144</v>
+      </c>
+      <c r="B141" cm="1">
+        <f t="array" aca="1" ref="B141" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>136</v>
+      </c>
+      <c r="B142" cm="1">
+        <f t="array" aca="1" ref="B142" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.66666666666666</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>154</v>
+      </c>
+      <c r="B143" cm="1">
+        <f t="array" aca="1" ref="B143" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.16666666666666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>129</v>
+      </c>
+      <c r="B144" cm="1">
+        <f t="array" aca="1" ref="B144" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.06666666666666</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>134</v>
+      </c>
+      <c r="B145" cm="1">
+        <f t="array" aca="1" ref="B145" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.13333333333333</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>135</v>
+      </c>
+      <c r="B146" cm="1">
+        <f t="array" aca="1" ref="B146" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.56666666666666</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>136</v>
+      </c>
+      <c r="B147" cm="1">
+        <f t="array" aca="1" ref="B147" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.69999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>134</v>
+      </c>
+      <c r="B148" cm="1">
+        <f t="array" aca="1" ref="B148" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.03333333333333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>134</v>
+      </c>
+      <c r="B149" cm="1">
+        <f t="array" aca="1" ref="B149" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.80000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>135</v>
+      </c>
+      <c r="B150" cm="1">
+        <f t="array" aca="1" ref="B150" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>137</v>
+      </c>
+      <c r="B151" cm="1">
+        <f t="array" aca="1" ref="B151" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.13333333333333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>129</v>
+      </c>
+      <c r="B152" cm="1">
+        <f t="array" aca="1" ref="B152" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.36666666666667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>141</v>
+      </c>
+      <c r="B153" cm="1">
+        <f t="array" aca="1" ref="B153" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.23333333333332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>135</v>
+      </c>
+      <c r="B154" cm="1">
+        <f t="array" aca="1" ref="B154" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>130</v>
+      </c>
+      <c r="B155" cm="1">
+        <f t="array" aca="1" ref="B155" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>123</v>
+      </c>
+      <c r="B156" cm="1">
+        <f t="array" aca="1" ref="B156" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>110</v>
+      </c>
+      <c r="B157" cm="1">
+        <f t="array" aca="1" ref="B157" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.13333333333333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>133</v>
+      </c>
+      <c r="B158" cm="1">
+        <f t="array" aca="1" ref="B158" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.83333333333334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>132</v>
+      </c>
+      <c r="B159" cm="1">
+        <f t="array" aca="1" ref="B159" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>129</v>
+      </c>
+      <c r="B160" cm="1">
+        <f t="array" aca="1" ref="B160" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>130.76666666666668</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>136</v>
+      </c>
+      <c r="B161" cm="1">
+        <f t="array" aca="1" ref="B161" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.43333333333334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>133</v>
+      </c>
+      <c r="B162" cm="1">
+        <f t="array" aca="1" ref="B162" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.36666666666667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>137</v>
+      </c>
+      <c r="B163" cm="1">
+        <f t="array" aca="1" ref="B163" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.06666666666666</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>146</v>
+      </c>
+      <c r="B164" cm="1">
+        <f t="array" aca="1" ref="B164" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.13333333333333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>138</v>
+      </c>
+      <c r="B165" cm="1">
+        <f t="array" aca="1" ref="B165" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>118</v>
+      </c>
+      <c r="B166" cm="1">
+        <f t="array" aca="1" ref="B166" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.73333333333332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>130</v>
+      </c>
+      <c r="B167" cm="1">
+        <f t="array" aca="1" ref="B167" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.36666666666667</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>140</v>
+      </c>
+      <c r="B168" cm="1">
+        <f t="array" aca="1" ref="B168" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.96666666666667</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>139</v>
+      </c>
+      <c r="B169" cm="1">
+        <f t="array" aca="1" ref="B169" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.96666666666667</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>132</v>
+      </c>
+      <c r="B170" cm="1">
+        <f t="array" aca="1" ref="B170" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.43333333333334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>132</v>
+      </c>
+      <c r="B171" cm="1">
+        <f t="array" aca="1" ref="B171" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.73333333333332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>129</v>
+      </c>
+      <c r="B172" cm="1">
+        <f t="array" aca="1" ref="B172" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>132</v>
+      </c>
+      <c r="B173" cm="1">
+        <f t="array" aca="1" ref="B173" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>133</v>
+      </c>
+      <c r="B174" cm="1">
+        <f t="array" aca="1" ref="B174" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>136</v>
+      </c>
+      <c r="B175" cm="1">
+        <f t="array" aca="1" ref="B175" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>154</v>
+      </c>
+      <c r="B176" cm="1">
+        <f t="array" aca="1" ref="B176" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.86666666666667</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>129</v>
+      </c>
+      <c r="B177" cm="1">
+        <f t="array" aca="1" ref="B177" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.53333333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>134</v>
+      </c>
+      <c r="B178" cm="1">
+        <f t="array" aca="1" ref="B178" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.66666666666666</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>131</v>
+      </c>
+      <c r="B179" cm="1">
+        <f t="array" aca="1" ref="B179" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.86666666666667</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>136</v>
+      </c>
+      <c r="B180" cm="1">
+        <f t="array" aca="1" ref="B180" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>118</v>
+      </c>
+      <c r="B181" cm="1">
+        <f t="array" aca="1" ref="B181" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.96666666666667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>122</v>
+      </c>
+      <c r="B182" cm="1">
+        <f t="array" aca="1" ref="B182" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.69999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>136</v>
+      </c>
+      <c r="B183" cm="1">
+        <f t="array" aca="1" ref="B183" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>130.96666666666667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>134</v>
+      </c>
+      <c r="B184" cm="1">
+        <f t="array" aca="1" ref="B184" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.03333333333333</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>133</v>
+      </c>
+      <c r="B185" cm="1">
+        <f t="array" aca="1" ref="B185" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.63333333333333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>137</v>
+      </c>
+      <c r="B186" cm="1">
+        <f t="array" aca="1" ref="B186" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.03333333333333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>127</v>
+      </c>
+      <c r="B187" cm="1">
+        <f t="array" aca="1" ref="B187" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.03333333333333</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>130</v>
+      </c>
+      <c r="B188" cm="1">
+        <f t="array" aca="1" ref="B188" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.43333333333334</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>140</v>
+      </c>
+      <c r="B189" cm="1">
+        <f t="array" aca="1" ref="B189" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>136</v>
+      </c>
+      <c r="B190" cm="1">
+        <f t="array" aca="1" ref="B190" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>137</v>
+      </c>
+      <c r="B191" cm="1">
+        <f t="array" aca="1" ref="B191" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.93333333333334</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>128</v>
+      </c>
+      <c r="B192" cm="1">
+        <f t="array" aca="1" ref="B192" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>135.56666666666666</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>125</v>
+      </c>
+      <c r="B193" cm="1">
+        <f t="array" aca="1" ref="B193" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>136</v>
+      </c>
+      <c r="B194" cm="1">
+        <f t="array" aca="1" ref="B194" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.36666666666667</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>132</v>
+      </c>
+      <c r="B195" cm="1">
+        <f t="array" aca="1" ref="B195" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.23333333333332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>133</v>
+      </c>
+      <c r="B196" cm="1">
+        <f t="array" aca="1" ref="B196" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.43333333333334</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>126</v>
+      </c>
+      <c r="B197" cm="1">
+        <f t="array" aca="1" ref="B197" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.63333333333333</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>129</v>
+      </c>
+      <c r="B198" cm="1">
+        <f t="array" aca="1" ref="B198" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.03333333333333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>140</v>
+      </c>
+      <c r="B199" cm="1">
+        <f t="array" aca="1" ref="B199" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.83333333333334</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>140</v>
+      </c>
+      <c r="B200" cm="1">
+        <f t="array" aca="1" ref="B200" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.16666666666666</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>136</v>
+      </c>
+      <c r="B201" cm="1">
+        <f t="array" aca="1" ref="B201" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>140</v>
+      </c>
+      <c r="B202" cm="1">
+        <f t="array" aca="1" ref="B202" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.13333333333333</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>145</v>
+      </c>
+      <c r="B203" cm="1">
+        <f t="array" aca="1" ref="B203" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.83333333333334</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>129</v>
+      </c>
+      <c r="B204" cm="1">
+        <f t="array" aca="1" ref="B204" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>137</v>
+      </c>
+      <c r="B205" cm="1">
+        <f t="array" aca="1" ref="B205" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>133</v>
+      </c>
+      <c r="B206" cm="1">
+        <f t="array" aca="1" ref="B206" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.83333333333334</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>133</v>
+      </c>
+      <c r="B207" cm="1">
+        <f t="array" aca="1" ref="B207" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.23333333333332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>130</v>
+      </c>
+      <c r="B208" cm="1">
+        <f t="array" aca="1" ref="B208" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>127</v>
+      </c>
+      <c r="B209" cm="1">
+        <f t="array" aca="1" ref="B209" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>122</v>
+      </c>
+      <c r="B210" cm="1">
+        <f t="array" aca="1" ref="B210" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.76666666666668</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>133</v>
+      </c>
+      <c r="B211" cm="1">
+        <f t="array" aca="1" ref="B211" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.96666666666667</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" cm="1">
+        <f t="array" aca="1" ref="B212" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.83333333333334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="B213" cm="1">
+        <f t="array" aca="1" ref="B213" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="B214" cm="1">
+        <f t="array" aca="1" ref="B214" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.26666666666668</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="B215" cm="1">
+        <f t="array" aca="1" ref="B215" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.83333333333334</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="B216" cm="1">
+        <f t="array" aca="1" ref="B216" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.43333333333334</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217" cm="1">
+        <f t="array" aca="1" ref="B217" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.69999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218" cm="1">
+        <f t="array" aca="1" ref="B218" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.56666666666666</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" cm="1">
+        <f t="array" aca="1" ref="B219" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="B220" cm="1">
+        <f t="array" aca="1" ref="B220" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.86666666666667</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="B221" cm="1">
+        <f t="array" aca="1" ref="B221" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>130.36666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="B222" cm="1">
+        <f t="array" aca="1" ref="B222" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.23333333333332</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="B223" cm="1">
+        <f t="array" aca="1" ref="B223" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.93333333333334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="B224" cm="1">
+        <f t="array" aca="1" ref="B224" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" cm="1">
+        <f t="array" aca="1" ref="B225" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>134.16666666666666</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" cm="1">
+        <f t="array" aca="1" ref="B226" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>132.56666666666666</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" cm="1">
+        <f t="array" aca="1" ref="B227" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>131.56666666666666</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" cm="1">
+        <f t="array" aca="1" ref="B228" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D3575A-2BC6-6D42-AB84-D3894CD5370C}">
+  <dimension ref="A1:F211"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <f ca="1">AVERAGE(
+  _xlfn.TAKE(
+    _xlfn.SORTBY($A$2:$A$211, _xlfn.RANDARRAY(ROWS($A$2:$A$211))),
+    $B$1
+  )
+)</f>
+        <v>133.51249999999999</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" ca="1" si="0">AVERAGE(
+  _xlfn.TAKE(
+    _xlfn.SORTBY($A$2:$A$211, _xlfn.RANDARRAY(ROWS($A$2:$A$211))),
+    $B$1
+  )
+)</f>
+        <v>133.58750000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.23750000000001</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" aca="1" ref="F3:F20" ca="1">FREQUENCY(C2:C101,E3:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.78749999999999</v>
+      </c>
+      <c r="E4">
+        <f>E3+0.5</f>
+        <v>128.5</v>
+      </c>
+      <c r="F4">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.4375</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E19" si="1">E4+0.5</f>
+        <v>129</v>
+      </c>
+      <c r="F5">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.77500000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>129.5</v>
+      </c>
+      <c r="F6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>132</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.07499999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>139</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.80000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>130.5</v>
+      </c>
+      <c r="F8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.28749999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>134</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.0625</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>131.5</v>
+      </c>
+      <c r="F10">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>130</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.44999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.41249999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>132.5</v>
+      </c>
+      <c r="F12">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>124</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.75</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="F13">
+        <f ca="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>142</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.69999999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>133.5</v>
+      </c>
+      <c r="F14">
+        <f ca="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.1875</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="F15">
+        <f ca="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>124</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>131.98750000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>134.5</v>
+      </c>
+      <c r="F16">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>139</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.125</v>
+      </c>
+      <c r="E17">
+        <f>E16+0.5</f>
+        <v>135</v>
+      </c>
+      <c r="F17">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.8125</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>135.5</v>
+      </c>
+      <c r="F18">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>132</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.73750000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="F19">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>134</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.9375</v>
+      </c>
+      <c r="F20">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>133</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>139</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.98750000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.77500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>138</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>136</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.73750000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>133</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.11250000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>126</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>139</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.30000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>126</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>138</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.1875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>147</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.26249999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>133</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.27500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>136</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.41249999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>143</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.58750000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>142</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>143</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="0"/>
+        <v>131.98750000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>126</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>125</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.9375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.21250000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>139</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.17500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>140</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.17500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>125</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="0"/>
+        <v>131.76249999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>129</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.05000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>136</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.92500000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>140</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>146</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.53749999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>131</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.41249999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>128</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.22499999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>127</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.21250000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>137</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.1875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>125</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.13749999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>142</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.03749999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>149</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.4375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>128</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>143</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.57499999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>134</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.96250000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>132</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.17500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>138</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.72499999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>135</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.9375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>132</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>129</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="0"/>
+        <v>132.77500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>126</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>131</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C101" ca="1" si="2">AVERAGE(
+  _xlfn.TAKE(
+    _xlfn.SORTBY($A$2:$A$211, _xlfn.RANDARRAY(ROWS($A$2:$A$211))),
+    $B$1
+  )
+)</f>
+        <v>133.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>122</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="2"/>
+        <v>134.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>135</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>133</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>140</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.3125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>131</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>131</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.72499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>132</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>141</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="2"/>
+        <v>134.33750000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>132</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.21250000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>139</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.52500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>125</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.22499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>132</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.53749999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>140</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>128</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.02500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>131</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>137</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.67500000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>126</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.48750000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>140</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.82499999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>126</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.32499999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>132</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.41249999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>117</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.72499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>123</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="2"/>
+        <v>134.21250000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>134</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.51249999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>129</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.92500000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>136</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>132</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.67500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>110</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.86250000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>129</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.5625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>130</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.96250000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>132</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>124</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>132</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="2"/>
+        <v>133.9375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>130</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="2"/>
+        <v>132.86250000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>125</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="2"/>
+        <v>131.77500000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>129</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="2"/>
+        <v>134.02500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/03/poteto30.xlsx
+++ b/03/poteto30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/NBPlan/TTC/授業資料/2025年度/1020201.アルゴリズム２/03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA5DB9E-5567-9D49-9C5B-0A44033E0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE358B-68B1-844A-85C8-6F04FAF3870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17000" yWindow="9700" windowWidth="32040" windowHeight="16360" activeTab="2" xr2:uid="{1AF82A5B-4E71-A64C-8DB5-C7045A0B925E}"/>
+    <workbookView xWindow="17000" yWindow="9700" windowWidth="32040" windowHeight="16360" xr2:uid="{1AF82A5B-4E71-A64C-8DB5-C7045A0B925E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$211</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1:$B$14</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$F$3:$F$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1:$B$228</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$1:$B$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$1:$B$228</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$F$3:$F$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$G$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$F$3:$F$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$E$3:$E$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$F$3:$F$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$E$3:$E$19</definedName>
     <definedName name="potato_31students" localSheetId="0">Sheet1!$A$1:$E$211</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +59,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -748,28 +739,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1050,7 +1041,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3905,7 +3896,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5778500" y="53479700"/>
+              <a:off x="5778500" y="51447700"/>
               <a:ext cx="5073650" cy="4241800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4480,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54A5406-1C9E-FA45-9A5C-845DD2913390}">
   <dimension ref="A1:M211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8162,7 +8153,7 @@
       </c>
       <c r="B1" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.06666666666666</v>
+        <v>131.16666666666666</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8171,7 +8162,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.23333333333332</v>
+        <v>132.86666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8180,7 +8171,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.23333333333332</v>
+        <v>134.83333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8189,7 +8180,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.30000000000001</v>
+        <v>131.96666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8198,7 +8189,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.6</v>
+        <v>133.86666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8207,7 +8198,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.6</v>
+        <v>133.43333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8216,7 +8207,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.26666666666668</v>
+        <v>134.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8225,7 +8216,7 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.26666666666668</v>
+        <v>134.36666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8234,7 +8225,7 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.69999999999999</v>
+        <v>134.36666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8243,7 +8234,7 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.43333333333334</v>
+        <v>131.96666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8252,7 +8243,7 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.76666666666668</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8261,7 +8252,7 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.69999999999999</v>
+        <v>132.83333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8270,7 +8261,7 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132</v>
+        <v>133.83333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8279,7 +8270,7 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.9</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8288,7 +8279,7 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.63333333333333</v>
+        <v>133.26666666666668</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8297,7 +8288,7 @@
       </c>
       <c r="B16" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.86666666666667</v>
+        <v>133.23333333333332</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8306,7 +8297,7 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.83333333333334</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8315,7 +8306,7 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.19999999999999</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8324,7 +8315,7 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.06666666666666</v>
+        <v>134.26666666666668</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8333,7 +8324,7 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.19999999999999</v>
+        <v>133.53333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8342,7 +8333,7 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.46666666666667</v>
+        <v>132.03333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8351,7 +8342,7 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.53333333333333</v>
+        <v>132.9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8360,7 +8351,7 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.13333333333333</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8369,7 +8360,7 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.03333333333333</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8378,7 +8369,7 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.30000000000001</v>
+        <v>134.1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8387,7 +8378,7 @@
       </c>
       <c r="B26" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.5</v>
+        <v>133.73333333333332</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8396,7 +8387,7 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.30000000000001</v>
+        <v>133.96666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8405,7 +8396,7 @@
       </c>
       <c r="B28" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>130.93333333333334</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8414,7 +8405,7 @@
       </c>
       <c r="B29" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.16666666666666</v>
+        <v>134.26666666666668</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8423,7 +8414,7 @@
       </c>
       <c r="B30" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.83333333333334</v>
+        <v>132.53333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8432,7 +8423,7 @@
       </c>
       <c r="B31" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.43333333333334</v>
+        <v>133.80000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8441,7 +8432,7 @@
       </c>
       <c r="B32" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.80000000000001</v>
+        <v>133.06666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8450,7 +8441,7 @@
       </c>
       <c r="B33" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.46666666666667</v>
+        <v>130.80000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8459,7 +8450,7 @@
       </c>
       <c r="B34" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.26666666666668</v>
+        <v>133.63333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8468,7 +8459,7 @@
       </c>
       <c r="B35" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.06666666666666</v>
+        <v>133.46666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8477,7 +8468,7 @@
       </c>
       <c r="B36" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.23333333333332</v>
+        <v>132.76666666666668</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8486,7 +8477,7 @@
       </c>
       <c r="B37" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.06666666666666</v>
+        <v>131.13333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8495,7 +8486,7 @@
       </c>
       <c r="B38" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.26666666666668</v>
+        <v>131.69999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8504,7 +8495,7 @@
       </c>
       <c r="B39" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.06666666666666</v>
+        <v>133.96666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8513,7 +8504,7 @@
       </c>
       <c r="B40" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.46666666666667</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8522,7 +8513,7 @@
       </c>
       <c r="B41" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.73333333333332</v>
+        <v>134.69999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8531,7 +8522,7 @@
       </c>
       <c r="B42" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.1</v>
+        <v>134.03333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8540,7 +8531,7 @@
       </c>
       <c r="B43" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.86666666666667</v>
+        <v>135.23333333333332</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8549,7 +8540,7 @@
       </c>
       <c r="B44" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134</v>
+        <v>133.53333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8558,7 +8549,7 @@
       </c>
       <c r="B45" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.86666666666667</v>
+        <v>134.33333333333334</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8567,7 +8558,7 @@
       </c>
       <c r="B46" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.76666666666668</v>
+        <v>132.69999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8576,7 +8567,7 @@
       </c>
       <c r="B47" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.9</v>
+        <v>134.19999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8585,7 +8576,7 @@
       </c>
       <c r="B48" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.69999999999999</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8594,7 +8585,7 @@
       </c>
       <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.46666666666667</v>
+        <v>131.56666666666666</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8603,7 +8594,7 @@
       </c>
       <c r="B50" cm="1">
         <f t="array" aca="1" ref="B50" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.46666666666667</v>
+        <v>134.63333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8612,7 +8603,7 @@
       </c>
       <c r="B51" cm="1">
         <f t="array" aca="1" ref="B51" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.46666666666667</v>
+        <v>131.69999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8621,7 +8612,7 @@
       </c>
       <c r="B52" cm="1">
         <f t="array" aca="1" ref="B52" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.9</v>
+        <v>131.73333333333332</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8630,7 +8621,7 @@
       </c>
       <c r="B53" cm="1">
         <f t="array" aca="1" ref="B53" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.56666666666666</v>
+        <v>132.36666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8639,7 +8630,7 @@
       </c>
       <c r="B54" cm="1">
         <f t="array" aca="1" ref="B54" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.69999999999999</v>
+        <v>135.30000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8648,7 +8639,7 @@
       </c>
       <c r="B55" cm="1">
         <f t="array" aca="1" ref="B55" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.96666666666667</v>
+        <v>134.16666666666666</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8657,7 +8648,7 @@
       </c>
       <c r="B56" cm="1">
         <f t="array" aca="1" ref="B56" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.06666666666666</v>
+        <v>132.96666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8666,7 +8657,7 @@
       </c>
       <c r="B57" cm="1">
         <f t="array" aca="1" ref="B57" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.53333333333333</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8675,7 +8666,7 @@
       </c>
       <c r="B58" cm="1">
         <f t="array" aca="1" ref="B58" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.13333333333333</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8684,7 +8675,7 @@
       </c>
       <c r="B59" cm="1">
         <f t="array" aca="1" ref="B59" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.16666666666666</v>
+        <v>134.1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8693,7 +8684,7 @@
       </c>
       <c r="B60" cm="1">
         <f t="array" aca="1" ref="B60" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.4</v>
+        <v>133.96666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8702,7 +8693,7 @@
       </c>
       <c r="B61" cm="1">
         <f t="array" aca="1" ref="B61" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.96666666666667</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8711,7 +8702,7 @@
       </c>
       <c r="B62" cm="1">
         <f t="array" aca="1" ref="B62" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.26666666666668</v>
+        <v>132.66666666666666</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8720,7 +8711,7 @@
       </c>
       <c r="B63" cm="1">
         <f t="array" aca="1" ref="B63" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.26666666666668</v>
+        <v>133.13333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8729,7 +8720,7 @@
       </c>
       <c r="B64" cm="1">
         <f t="array" aca="1" ref="B64" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.03333333333333</v>
+        <v>132.93333333333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8738,7 +8729,7 @@
       </c>
       <c r="B65" cm="1">
         <f t="array" aca="1" ref="B65" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8747,7 +8738,7 @@
       </c>
       <c r="B66" cm="1">
         <f t="array" aca="1" ref="B66" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.63333333333333</v>
+        <v>132.4</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8756,7 +8747,7 @@
       </c>
       <c r="B67" cm="1">
         <f t="array" aca="1" ref="B67" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.36666666666667</v>
+        <v>134.26666666666668</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8765,7 +8756,7 @@
       </c>
       <c r="B68" cm="1">
         <f t="array" aca="1" ref="B68" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.53333333333333</v>
+        <v>132.33333333333334</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8774,7 +8765,7 @@
       </c>
       <c r="B69" cm="1">
         <f t="array" aca="1" ref="B69" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.46666666666667</v>
+        <v>133.96666666666667</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8783,7 +8774,7 @@
       </c>
       <c r="B70" cm="1">
         <f t="array" aca="1" ref="B70" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>130.06666666666666</v>
+        <v>132.93333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8792,7 +8783,7 @@
       </c>
       <c r="B71" cm="1">
         <f t="array" aca="1" ref="B71" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.86666666666667</v>
+        <v>132.69999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8801,7 +8792,7 @@
       </c>
       <c r="B72" cm="1">
         <f t="array" aca="1" ref="B72" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>130.69999999999999</v>
+        <v>133.03333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8810,7 +8801,7 @@
       </c>
       <c r="B73" cm="1">
         <f t="array" aca="1" ref="B73" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.93333333333334</v>
+        <v>131.83333333333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8819,7 +8810,7 @@
       </c>
       <c r="B74" cm="1">
         <f t="array" aca="1" ref="B74" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.93333333333334</v>
+        <v>134.26666666666668</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8828,7 +8819,7 @@
       </c>
       <c r="B75" cm="1">
         <f t="array" aca="1" ref="B75" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.23333333333332</v>
+        <v>133.63333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8837,7 +8828,7 @@
       </c>
       <c r="B76" cm="1">
         <f t="array" aca="1" ref="B76" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.4</v>
+        <v>132.63333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -8846,7 +8837,7 @@
       </c>
       <c r="B77" cm="1">
         <f t="array" aca="1" ref="B77" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.03333333333333</v>
+        <v>133.06666666666666</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8855,7 +8846,7 @@
       </c>
       <c r="B78" cm="1">
         <f t="array" aca="1" ref="B78" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.9</v>
+        <v>133.53333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -8864,7 +8855,7 @@
       </c>
       <c r="B79" cm="1">
         <f t="array" aca="1" ref="B79" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.63333333333333</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -8873,7 +8864,7 @@
       </c>
       <c r="B80" cm="1">
         <f t="array" aca="1" ref="B80" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.30000000000001</v>
+        <v>134.26666666666668</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8882,7 +8873,7 @@
       </c>
       <c r="B81" cm="1">
         <f t="array" aca="1" ref="B81" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.76666666666668</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8891,7 +8882,7 @@
       </c>
       <c r="B82" cm="1">
         <f t="array" aca="1" ref="B82" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.06666666666666</v>
+        <v>131.69999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -8900,7 +8891,7 @@
       </c>
       <c r="B83" cm="1">
         <f t="array" aca="1" ref="B83" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.19999999999999</v>
+        <v>132.63333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8909,7 +8900,7 @@
       </c>
       <c r="B84" cm="1">
         <f t="array" aca="1" ref="B84" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.56666666666666</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8918,7 +8909,7 @@
       </c>
       <c r="B85" cm="1">
         <f t="array" aca="1" ref="B85" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.76666666666668</v>
+        <v>133.83333333333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8927,7 +8918,7 @@
       </c>
       <c r="B86" cm="1">
         <f t="array" aca="1" ref="B86" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.19999999999999</v>
+        <v>132.66666666666666</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -8936,7 +8927,7 @@
       </c>
       <c r="B87" cm="1">
         <f t="array" aca="1" ref="B87" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.86666666666667</v>
+        <v>130.83333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -8945,7 +8936,7 @@
       </c>
       <c r="B88" cm="1">
         <f t="array" aca="1" ref="B88" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.13333333333333</v>
+        <v>135.19999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -8954,7 +8945,7 @@
       </c>
       <c r="B89" cm="1">
         <f t="array" aca="1" ref="B89" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.73333333333332</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -8963,7 +8954,7 @@
       </c>
       <c r="B90" cm="1">
         <f t="array" aca="1" ref="B90" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.6</v>
+        <v>134.23333333333332</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -8972,7 +8963,7 @@
       </c>
       <c r="B91" cm="1">
         <f t="array" aca="1" ref="B91" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.6</v>
+        <v>134.13333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -8981,7 +8972,7 @@
       </c>
       <c r="B92" cm="1">
         <f t="array" aca="1" ref="B92" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.73333333333332</v>
+        <v>131.53333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -8990,7 +8981,7 @@
       </c>
       <c r="B93" cm="1">
         <f t="array" aca="1" ref="B93" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.9</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -8999,7 +8990,7 @@
       </c>
       <c r="B94" cm="1">
         <f t="array" aca="1" ref="B94" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.4</v>
+        <v>133.26666666666668</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -9008,7 +8999,7 @@
       </c>
       <c r="B95" cm="1">
         <f t="array" aca="1" ref="B95" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.23333333333332</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -9017,7 +9008,7 @@
       </c>
       <c r="B96" cm="1">
         <f t="array" aca="1" ref="B96" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.19999999999999</v>
+        <v>132.63333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -9026,7 +9017,7 @@
       </c>
       <c r="B97" cm="1">
         <f t="array" aca="1" ref="B97" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.93333333333334</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -9035,7 +9026,7 @@
       </c>
       <c r="B98" cm="1">
         <f t="array" aca="1" ref="B98" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.33333333333334</v>
+        <v>131.80000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -9044,7 +9035,7 @@
       </c>
       <c r="B99" cm="1">
         <f t="array" aca="1" ref="B99" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>130.76666666666668</v>
+        <v>134.63333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -9053,7 +9044,7 @@
       </c>
       <c r="B100" cm="1">
         <f t="array" aca="1" ref="B100" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.16666666666666</v>
+        <v>133.43333333333334</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -9062,7 +9053,7 @@
       </c>
       <c r="B101" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.36666666666667</v>
+        <v>131.06666666666666</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -9071,7 +9062,7 @@
       </c>
       <c r="B102" cm="1">
         <f t="array" aca="1" ref="B102" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.36666666666667</v>
+        <v>135.19999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -9080,7 +9071,7 @@
       </c>
       <c r="B103" cm="1">
         <f t="array" aca="1" ref="B103" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.56666666666666</v>
+        <v>134.43333333333334</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -9089,7 +9080,7 @@
       </c>
       <c r="B104" cm="1">
         <f t="array" aca="1" ref="B104" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.56666666666666</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -9098,7 +9089,7 @@
       </c>
       <c r="B105" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.80000000000001</v>
+        <v>134.30000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -9107,7 +9098,7 @@
       </c>
       <c r="B106" cm="1">
         <f t="array" aca="1" ref="B106" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.56666666666666</v>
+        <v>131.9</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -9116,7 +9107,7 @@
       </c>
       <c r="B107" cm="1">
         <f t="array" aca="1" ref="B107" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.16666666666666</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -9125,7 +9116,7 @@
       </c>
       <c r="B108" cm="1">
         <f t="array" aca="1" ref="B108" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.83333333333334</v>
+        <v>132.83333333333334</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -9134,7 +9125,7 @@
       </c>
       <c r="B109" cm="1">
         <f t="array" aca="1" ref="B109" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.30000000000001</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -9143,7 +9134,7 @@
       </c>
       <c r="B110" cm="1">
         <f t="array" aca="1" ref="B110" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.83333333333334</v>
+        <v>133.76666666666668</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -9152,7 +9143,7 @@
       </c>
       <c r="B111" cm="1">
         <f t="array" aca="1" ref="B111" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.33333333333334</v>
+        <v>134.46666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -9161,7 +9152,7 @@
       </c>
       <c r="B112" cm="1">
         <f t="array" aca="1" ref="B112" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.1</v>
+        <v>134.43333333333334</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -9170,7 +9161,7 @@
       </c>
       <c r="B113" cm="1">
         <f t="array" aca="1" ref="B113" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.63333333333333</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -9179,7 +9170,7 @@
       </c>
       <c r="B114" cm="1">
         <f t="array" aca="1" ref="B114" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.53333333333333</v>
+        <v>134.96666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -9188,7 +9179,7 @@
       </c>
       <c r="B115" cm="1">
         <f t="array" aca="1" ref="B115" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.23333333333332</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -9197,7 +9188,7 @@
       </c>
       <c r="B116" cm="1">
         <f t="array" aca="1" ref="B116" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.19999999999999</v>
+        <v>132.1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -9206,7 +9197,7 @@
       </c>
       <c r="B117" cm="1">
         <f t="array" aca="1" ref="B117" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.16666666666666</v>
+        <v>130.69999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -9215,7 +9206,7 @@
       </c>
       <c r="B118" cm="1">
         <f t="array" aca="1" ref="B118" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.46666666666667</v>
+        <v>131.80000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -9224,7 +9215,7 @@
       </c>
       <c r="B119" cm="1">
         <f t="array" aca="1" ref="B119" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.06666666666666</v>
+        <v>132.33333333333334</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -9233,7 +9224,7 @@
       </c>
       <c r="B120" cm="1">
         <f t="array" aca="1" ref="B120" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.76666666666668</v>
+        <v>133.19999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -9242,7 +9233,7 @@
       </c>
       <c r="B121" cm="1">
         <f t="array" aca="1" ref="B121" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.86666666666667</v>
+        <v>134.56666666666666</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -9251,7 +9242,7 @@
       </c>
       <c r="B122" cm="1">
         <f t="array" aca="1" ref="B122" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.16666666666666</v>
+        <v>131.66666666666666</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -9260,7 +9251,7 @@
       </c>
       <c r="B123" cm="1">
         <f t="array" aca="1" ref="B123" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.69999999999999</v>
+        <v>133.19999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -9269,7 +9260,7 @@
       </c>
       <c r="B124" cm="1">
         <f t="array" aca="1" ref="B124" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.93333333333334</v>
+        <v>133.76666666666668</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -9278,7 +9269,7 @@
       </c>
       <c r="B125" cm="1">
         <f t="array" aca="1" ref="B125" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.66666666666666</v>
+        <v>132.96666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -9287,7 +9278,7 @@
       </c>
       <c r="B126" cm="1">
         <f t="array" aca="1" ref="B126" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.86666666666667</v>
+        <v>133.36666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -9296,7 +9287,7 @@
       </c>
       <c r="B127" cm="1">
         <f t="array" aca="1" ref="B127" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.5</v>
+        <v>134.76666666666668</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -9305,7 +9296,7 @@
       </c>
       <c r="B128" cm="1">
         <f t="array" aca="1" ref="B128" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.9</v>
+        <v>134.66666666666666</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -9314,7 +9305,7 @@
       </c>
       <c r="B129" cm="1">
         <f t="array" aca="1" ref="B129" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.33333333333334</v>
+        <v>132.86666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -9323,7 +9314,7 @@
       </c>
       <c r="B130" cm="1">
         <f t="array" aca="1" ref="B130" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.46666666666667</v>
+        <v>133.83333333333334</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -9332,7 +9323,7 @@
       </c>
       <c r="B131" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.83333333333334</v>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -9341,7 +9332,7 @@
       </c>
       <c r="B132" cm="1">
         <f t="array" aca="1" ref="B132" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.69999999999999</v>
+        <v>133.76666666666668</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -9350,7 +9341,7 @@
       </c>
       <c r="B133" cm="1">
         <f t="array" aca="1" ref="B133" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.06666666666666</v>
+        <v>131.80000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -9359,7 +9350,7 @@
       </c>
       <c r="B134" cm="1">
         <f t="array" aca="1" ref="B134" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.1</v>
+        <v>133.73333333333332</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -9368,7 +9359,7 @@
       </c>
       <c r="B135" cm="1">
         <f t="array" aca="1" ref="B135" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.33333333333334</v>
+        <v>133.93333333333334</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -9377,7 +9368,7 @@
       </c>
       <c r="B136" cm="1">
         <f t="array" aca="1" ref="B136" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.26666666666668</v>
+        <v>132.69999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -9386,7 +9377,7 @@
       </c>
       <c r="B137" cm="1">
         <f t="array" aca="1" ref="B137" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.26666666666668</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -9395,7 +9386,7 @@
       </c>
       <c r="B138" cm="1">
         <f t="array" aca="1" ref="B138" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.43333333333334</v>
+        <v>133.80000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -9404,7 +9395,7 @@
       </c>
       <c r="B139" cm="1">
         <f t="array" aca="1" ref="B139" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.19999999999999</v>
+        <v>133.06666666666666</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -9413,7 +9404,7 @@
       </c>
       <c r="B140" cm="1">
         <f t="array" aca="1" ref="B140" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.03333333333333</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -9422,7 +9413,7 @@
       </c>
       <c r="B141" cm="1">
         <f t="array" aca="1" ref="B141" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.6</v>
+        <v>132.73333333333332</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -9431,7 +9422,7 @@
       </c>
       <c r="B142" cm="1">
         <f t="array" aca="1" ref="B142" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.66666666666666</v>
+        <v>132.4</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -9440,7 +9431,7 @@
       </c>
       <c r="B143" cm="1">
         <f t="array" aca="1" ref="B143" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.16666666666666</v>
+        <v>133.80000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -9449,7 +9440,7 @@
       </c>
       <c r="B144" cm="1">
         <f t="array" aca="1" ref="B144" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.06666666666666</v>
+        <v>131.76666666666668</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -9458,7 +9449,7 @@
       </c>
       <c r="B145" cm="1">
         <f t="array" aca="1" ref="B145" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.13333333333333</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -9467,7 +9458,7 @@
       </c>
       <c r="B146" cm="1">
         <f t="array" aca="1" ref="B146" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.56666666666666</v>
+        <v>132.26666666666668</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -9476,7 +9467,7 @@
       </c>
       <c r="B147" cm="1">
         <f t="array" aca="1" ref="B147" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.69999999999999</v>
+        <v>134.76666666666668</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -9485,7 +9476,7 @@
       </c>
       <c r="B148" cm="1">
         <f t="array" aca="1" ref="B148" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.03333333333333</v>
+        <v>133.1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -9494,7 +9485,7 @@
       </c>
       <c r="B149" cm="1">
         <f t="array" aca="1" ref="B149" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.80000000000001</v>
+        <v>134.63333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -9503,7 +9494,7 @@
       </c>
       <c r="B150" cm="1">
         <f t="array" aca="1" ref="B150" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>129.5</v>
+        <v>134.23333333333332</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -9512,7 +9503,7 @@
       </c>
       <c r="B151" cm="1">
         <f t="array" aca="1" ref="B151" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.13333333333333</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -9521,7 +9512,7 @@
       </c>
       <c r="B152" cm="1">
         <f t="array" aca="1" ref="B152" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.36666666666667</v>
+        <v>132.33333333333334</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -9530,7 +9521,7 @@
       </c>
       <c r="B153" cm="1">
         <f t="array" aca="1" ref="B153" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.23333333333332</v>
+        <v>132.53333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -9539,7 +9530,7 @@
       </c>
       <c r="B154" cm="1">
         <f t="array" aca="1" ref="B154" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.1</v>
+        <v>133.19999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -9548,7 +9539,7 @@
       </c>
       <c r="B155" cm="1">
         <f t="array" aca="1" ref="B155" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132</v>
+        <v>131.33333333333334</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -9557,7 +9548,7 @@
       </c>
       <c r="B156" cm="1">
         <f t="array" aca="1" ref="B156" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.19999999999999</v>
+        <v>134.16666666666666</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -9566,7 +9557,7 @@
       </c>
       <c r="B157" cm="1">
         <f t="array" aca="1" ref="B157" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.13333333333333</v>
+        <v>132.06666666666666</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -9575,7 +9566,7 @@
       </c>
       <c r="B158" cm="1">
         <f t="array" aca="1" ref="B158" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.83333333333334</v>
+        <v>133.56666666666666</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -9584,7 +9575,7 @@
       </c>
       <c r="B159" cm="1">
         <f t="array" aca="1" ref="B159" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.19999999999999</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -9593,7 +9584,7 @@
       </c>
       <c r="B160" cm="1">
         <f t="array" aca="1" ref="B160" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>130.76666666666668</v>
+        <v>134.80000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -9602,7 +9593,7 @@
       </c>
       <c r="B161" cm="1">
         <f t="array" aca="1" ref="B161" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.43333333333334</v>
+        <v>131.56666666666666</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -9611,7 +9602,7 @@
       </c>
       <c r="B162" cm="1">
         <f t="array" aca="1" ref="B162" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.36666666666667</v>
+        <v>132.66666666666666</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -9620,7 +9611,7 @@
       </c>
       <c r="B163" cm="1">
         <f t="array" aca="1" ref="B163" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.06666666666666</v>
+        <v>133.23333333333332</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -9629,7 +9620,7 @@
       </c>
       <c r="B164" cm="1">
         <f t="array" aca="1" ref="B164" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.13333333333333</v>
+        <v>134.83333333333334</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -9638,7 +9629,7 @@
       </c>
       <c r="B165" cm="1">
         <f t="array" aca="1" ref="B165" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134</v>
+        <v>133.36666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -9647,7 +9638,7 @@
       </c>
       <c r="B166" cm="1">
         <f t="array" aca="1" ref="B166" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.73333333333332</v>
+        <v>132.76666666666668</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -9656,7 +9647,7 @@
       </c>
       <c r="B167" cm="1">
         <f t="array" aca="1" ref="B167" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.36666666666667</v>
+        <v>131.86666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -9665,7 +9656,7 @@
       </c>
       <c r="B168" cm="1">
         <f t="array" aca="1" ref="B168" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.96666666666667</v>
+        <v>132.93333333333334</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -9674,7 +9665,7 @@
       </c>
       <c r="B169" cm="1">
         <f t="array" aca="1" ref="B169" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.96666666666667</v>
+        <v>130.86666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -9683,7 +9674,7 @@
       </c>
       <c r="B170" cm="1">
         <f t="array" aca="1" ref="B170" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.43333333333334</v>
+        <v>134.69999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -9692,7 +9683,7 @@
       </c>
       <c r="B171" cm="1">
         <f t="array" aca="1" ref="B171" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.73333333333332</v>
+        <v>134.1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -9701,7 +9692,7 @@
       </c>
       <c r="B172" cm="1">
         <f t="array" aca="1" ref="B172" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.1</v>
+        <v>132.56666666666666</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -9710,7 +9701,7 @@
       </c>
       <c r="B173" cm="1">
         <f t="array" aca="1" ref="B173" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.19999999999999</v>
+        <v>134.6</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -9719,7 +9710,7 @@
       </c>
       <c r="B174" cm="1">
         <f t="array" aca="1" ref="B174" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.80000000000001</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -9728,7 +9719,7 @@
       </c>
       <c r="B175" cm="1">
         <f t="array" aca="1" ref="B175" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.30000000000001</v>
+        <v>133.43333333333334</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -9737,7 +9728,7 @@
       </c>
       <c r="B176" cm="1">
         <f t="array" aca="1" ref="B176" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.86666666666667</v>
+        <v>132.73333333333332</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -9746,7 +9737,7 @@
       </c>
       <c r="B177" cm="1">
         <f t="array" aca="1" ref="B177" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.53333333333333</v>
+        <v>129.63333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -9755,7 +9746,7 @@
       </c>
       <c r="B178" cm="1">
         <f t="array" aca="1" ref="B178" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.66666666666666</v>
+        <v>132.13333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -9764,7 +9755,7 @@
       </c>
       <c r="B179" cm="1">
         <f t="array" aca="1" ref="B179" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.86666666666667</v>
+        <v>134.23333333333332</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -9773,7 +9764,7 @@
       </c>
       <c r="B180" cm="1">
         <f t="array" aca="1" ref="B180" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.9</v>
+        <v>135.76666666666668</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -9782,7 +9773,7 @@
       </c>
       <c r="B181" cm="1">
         <f t="array" aca="1" ref="B181" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.96666666666667</v>
+        <v>132.86666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -9791,7 +9782,7 @@
       </c>
       <c r="B182" cm="1">
         <f t="array" aca="1" ref="B182" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.69999999999999</v>
+        <v>132.83333333333334</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -9800,7 +9791,7 @@
       </c>
       <c r="B183" cm="1">
         <f t="array" aca="1" ref="B183" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>130.96666666666667</v>
+        <v>133.13333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -9809,7 +9800,7 @@
       </c>
       <c r="B184" cm="1">
         <f t="array" aca="1" ref="B184" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.03333333333333</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -9818,7 +9809,7 @@
       </c>
       <c r="B185" cm="1">
         <f t="array" aca="1" ref="B185" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.63333333333333</v>
+        <v>135.43333333333334</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -9827,7 +9818,7 @@
       </c>
       <c r="B186" cm="1">
         <f t="array" aca="1" ref="B186" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.03333333333333</v>
+        <v>135.19999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -9836,7 +9827,7 @@
       </c>
       <c r="B187" cm="1">
         <f t="array" aca="1" ref="B187" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.03333333333333</v>
+        <v>132.93333333333334</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -9845,7 +9836,7 @@
       </c>
       <c r="B188" cm="1">
         <f t="array" aca="1" ref="B188" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.43333333333334</v>
+        <v>131.86666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -9854,7 +9845,7 @@
       </c>
       <c r="B189" cm="1">
         <f t="array" aca="1" ref="B189" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.30000000000001</v>
+        <v>133.19999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -9863,7 +9854,7 @@
       </c>
       <c r="B190" cm="1">
         <f t="array" aca="1" ref="B190" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>129.69999999999999</v>
+        <v>131.83333333333334</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -9872,7 +9863,7 @@
       </c>
       <c r="B191" cm="1">
         <f t="array" aca="1" ref="B191" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.93333333333334</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -9881,7 +9872,7 @@
       </c>
       <c r="B192" cm="1">
         <f t="array" aca="1" ref="B192" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>135.56666666666666</v>
+        <v>133.33333333333334</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -9890,7 +9881,7 @@
       </c>
       <c r="B193" cm="1">
         <f t="array" aca="1" ref="B193" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.4</v>
+        <v>133.76666666666668</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -9899,7 +9890,7 @@
       </c>
       <c r="B194" cm="1">
         <f t="array" aca="1" ref="B194" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.36666666666667</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -9908,7 +9899,7 @@
       </c>
       <c r="B195" cm="1">
         <f t="array" aca="1" ref="B195" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.23333333333332</v>
+        <v>132.93333333333334</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -9917,7 +9908,7 @@
       </c>
       <c r="B196" cm="1">
         <f t="array" aca="1" ref="B196" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.43333333333334</v>
+        <v>133.36666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -9926,7 +9917,7 @@
       </c>
       <c r="B197" cm="1">
         <f t="array" aca="1" ref="B197" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.63333333333333</v>
+        <v>136</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -9935,7 +9926,7 @@
       </c>
       <c r="B198" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.03333333333333</v>
+        <v>134.33333333333334</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -9944,7 +9935,7 @@
       </c>
       <c r="B199" cm="1">
         <f t="array" aca="1" ref="B199" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.83333333333334</v>
+        <v>132.73333333333332</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -9953,7 +9944,7 @@
       </c>
       <c r="B200" cm="1">
         <f t="array" aca="1" ref="B200" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.16666666666666</v>
+        <v>133.96666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -9962,7 +9953,7 @@
       </c>
       <c r="B201" cm="1">
         <f t="array" aca="1" ref="B201" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134</v>
+        <v>134.73333333333332</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -9971,7 +9962,7 @@
       </c>
       <c r="B202" cm="1">
         <f t="array" aca="1" ref="B202" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.13333333333333</v>
+        <v>132.66666666666666</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -9980,7 +9971,7 @@
       </c>
       <c r="B203" cm="1">
         <f t="array" aca="1" ref="B203" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.83333333333334</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -9989,7 +9980,7 @@
       </c>
       <c r="B204" cm="1">
         <f t="array" aca="1" ref="B204" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.9</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -9998,7 +9989,7 @@
       </c>
       <c r="B205" cm="1">
         <f t="array" aca="1" ref="B205" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.19999999999999</v>
+        <v>133.86666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -10007,7 +9998,7 @@
       </c>
       <c r="B206" cm="1">
         <f t="array" aca="1" ref="B206" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.83333333333334</v>
+        <v>132.73333333333332</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -10016,7 +10007,7 @@
       </c>
       <c r="B207" cm="1">
         <f t="array" aca="1" ref="B207" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.23333333333332</v>
+        <v>133.43333333333334</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -10025,7 +10016,7 @@
       </c>
       <c r="B208" cm="1">
         <f t="array" aca="1" ref="B208" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.6</v>
+        <v>132.96666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -10034,7 +10025,7 @@
       </c>
       <c r="B209" cm="1">
         <f t="array" aca="1" ref="B209" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.80000000000001</v>
+        <v>133.73333333333332</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -10043,7 +10034,7 @@
       </c>
       <c r="B210" cm="1">
         <f t="array" aca="1" ref="B210" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.76666666666668</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -10052,109 +10043,109 @@
       </c>
       <c r="B211" cm="1">
         <f t="array" aca="1" ref="B211" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.96666666666667</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="B212" cm="1">
         <f t="array" aca="1" ref="B212" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.83333333333334</v>
+        <v>133.03333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="B213" cm="1">
         <f t="array" aca="1" ref="B213" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.80000000000001</v>
+        <v>133.63333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="B214" cm="1">
         <f t="array" aca="1" ref="B214" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.26666666666668</v>
+        <v>134.69999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="B215" cm="1">
         <f t="array" aca="1" ref="B215" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.83333333333334</v>
+        <v>133.23333333333332</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="B216" cm="1">
         <f t="array" aca="1" ref="B216" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.43333333333334</v>
+        <v>132.36666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="B217" cm="1">
         <f t="array" aca="1" ref="B217" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.69999999999999</v>
+        <v>131.63333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="B218" cm="1">
         <f t="array" aca="1" ref="B218" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.56666666666666</v>
+        <v>130.86666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="B219" cm="1">
         <f t="array" aca="1" ref="B219" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.1</v>
+        <v>136.16666666666666</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="B220" cm="1">
         <f t="array" aca="1" ref="B220" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.86666666666667</v>
+        <v>133.56666666666666</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="B221" cm="1">
         <f t="array" aca="1" ref="B221" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>130.36666666666667</v>
+        <v>134.16666666666666</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="B222" cm="1">
         <f t="array" aca="1" ref="B222" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.23333333333332</v>
+        <v>134.46666666666667</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="B223" cm="1">
         <f t="array" aca="1" ref="B223" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.93333333333334</v>
+        <v>132.33333333333334</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="B224" cm="1">
         <f t="array" aca="1" ref="B224" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" cm="1">
         <f t="array" aca="1" ref="B225" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>134.16666666666666</v>
+        <v>134.63333333333333</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" cm="1">
         <f t="array" aca="1" ref="B226" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>132.56666666666666</v>
+        <v>132.66666666666666</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" cm="1">
         <f t="array" aca="1" ref="B227" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>131.56666666666666</v>
+        <v>134.13333333333333</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" cm="1">
         <f t="array" aca="1" ref="B228" ca="1">AVERAGE(INDEX(_xlfn.SORTBY($A$2:$A$211,_xlfn.RANDARRAY(ROWS($A$2:$A$211))),_xlfn.SEQUENCE(30)))</f>
-        <v>133.69999999999999</v>
+        <v>133.80000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10168,7 +10159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D3575A-2BC6-6D42-AB84-D3894CD5370C}">
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10196,7 +10187,7 @@
     $B$1
   )
 )</f>
-        <v>133.51249999999999</v>
+        <v>133.27500000000001</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" ca="1" si="0">AVERAGE(
@@ -10205,7 +10196,7 @@
     $B$1
   )
 )</f>
-        <v>133.58750000000001</v>
+        <v>133.1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10214,7 +10205,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>134.23750000000001</v>
+        <v>133.41249999999999</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -10230,7 +10221,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>133.78749999999999</v>
+        <v>131.91249999999999</v>
       </c>
       <c r="E4">
         <f>E3+0.5</f>
@@ -10247,7 +10238,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>134.4375</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E19" si="1">E4+0.5</f>
@@ -10264,7 +10255,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>133.77500000000001</v>
+        <v>133.5</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -10281,7 +10272,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>134.07499999999999</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -10298,7 +10289,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>132.80000000000001</v>
+        <v>132.63749999999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -10315,7 +10306,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>133.28749999999999</v>
+        <v>132.42500000000001</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -10332,7 +10323,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>133.0625</v>
+        <v>133.47499999999999</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -10340,7 +10331,7 @@
       </c>
       <c r="F10">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10349,7 +10340,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>132.44999999999999</v>
+        <v>132.85</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -10357,7 +10348,7 @@
       </c>
       <c r="F11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10366,7 +10357,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>132.41249999999999</v>
+        <v>134.08750000000001</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -10374,7 +10365,7 @@
       </c>
       <c r="F12">
         <f ca="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10383,7 +10374,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>133.75</v>
+        <v>131.98750000000001</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -10391,7 +10382,7 @@
       </c>
       <c r="F13">
         <f ca="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10400,7 +10391,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>134.69999999999999</v>
+        <v>134.58750000000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -10408,7 +10399,7 @@
       </c>
       <c r="F14">
         <f ca="1"/>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10417,7 +10408,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>133.1875</v>
+        <v>133.23750000000001</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -10425,7 +10416,7 @@
       </c>
       <c r="F15">
         <f ca="1"/>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10434,7 +10425,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>131.98750000000001</v>
+        <v>132.83750000000001</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -10442,7 +10433,7 @@
       </c>
       <c r="F16">
         <f ca="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10451,7 +10442,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>132.125</v>
+        <v>133.63749999999999</v>
       </c>
       <c r="E17">
         <f>E16+0.5</f>
@@ -10459,7 +10450,7 @@
       </c>
       <c r="F17">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10468,7 +10459,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>132.8125</v>
+        <v>132.77500000000001</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -10485,7 +10476,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>132.73750000000001</v>
+        <v>132.61250000000001</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -10502,7 +10493,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>133.9375</v>
+        <v>132.28749999999999</v>
       </c>
       <c r="F20">
         <f ca="1"/>
@@ -10515,7 +10506,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>132.625</v>
+        <v>133.02500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10524,7 +10515,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>132.98750000000001</v>
+        <v>133.47499999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10533,7 +10524,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>132.77500000000001</v>
+        <v>133.25</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10542,7 +10533,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>133.5</v>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10551,7 +10542,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>132.73750000000001</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10560,7 +10551,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>134.11250000000001</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10569,7 +10560,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>134.9</v>
+        <v>133.05000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10578,7 +10569,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>132.30000000000001</v>
+        <v>133.52500000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10587,7 +10578,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>133.26249999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10596,7 +10587,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>133.1875</v>
+        <v>133.47499999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10605,7 +10596,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>133.26249999999999</v>
+        <v>132.15</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10614,7 +10605,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>132.27500000000001</v>
+        <v>133.0625</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10623,7 +10614,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>132.625</v>
+        <v>132.65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10632,7 +10623,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>134.41249999999999</v>
+        <v>133.15</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10641,7 +10632,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>133.58750000000001</v>
+        <v>132.65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10650,7 +10641,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>133.65</v>
+        <v>132.69999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10659,7 +10650,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>131.98750000000001</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10668,7 +10659,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>133.69999999999999</v>
+        <v>133.22499999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10677,7 +10668,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>133.69999999999999</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10686,7 +10677,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>133.9375</v>
+        <v>131.9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10695,7 +10686,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>133.21250000000001</v>
+        <v>133.16249999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10704,7 +10695,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>134.17500000000001</v>
+        <v>132.4375</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10713,7 +10704,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>132.17500000000001</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10722,7 +10713,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>133.30000000000001</v>
+        <v>133.47499999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10731,7 +10722,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>131.76249999999999</v>
+        <v>132.66249999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10740,7 +10731,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>134.05000000000001</v>
+        <v>132.66249999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10749,7 +10740,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>132.92500000000001</v>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10758,7 +10749,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>132.8125</v>
+        <v>133.80000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10767,7 +10758,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>133.53749999999999</v>
+        <v>132.9375</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10776,7 +10767,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>132.41249999999999</v>
+        <v>131.47499999999999</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10785,7 +10776,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>133.22499999999999</v>
+        <v>133.30000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10794,7 +10785,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>133.21250000000001</v>
+        <v>133.27500000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10803,7 +10794,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>132.1875</v>
+        <v>132.69999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10812,7 +10803,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>133.13749999999999</v>
+        <v>133.77500000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10821,7 +10812,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>133.03749999999999</v>
+        <v>132.15</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10830,7 +10821,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>132.4375</v>
+        <v>133.55000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10839,7 +10830,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>133.625</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -10848,7 +10839,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>132.57499999999999</v>
+        <v>133.82499999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -10857,7 +10848,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>133.96250000000001</v>
+        <v>133.17500000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -10866,7 +10857,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>133.17500000000001</v>
+        <v>132.8125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -10875,7 +10866,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>132.72499999999999</v>
+        <v>133.53749999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -10884,7 +10875,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>132.9375</v>
+        <v>133.82499999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -10893,7 +10884,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>132.125</v>
+        <v>133.82499999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -10902,7 +10893,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>132.77500000000001</v>
+        <v>133.15</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10911,7 +10902,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>133.5</v>
+        <v>133.47499999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10925,7 +10916,7 @@
     $B$1
   )
 )</f>
-        <v>133.25</v>
+        <v>132.42500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10934,7 +10925,7 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="2"/>
-        <v>134.25</v>
+        <v>132.65</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10943,7 +10934,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="2"/>
-        <v>132.65</v>
+        <v>132.8125</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10952,7 +10943,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="2"/>
-        <v>133.6</v>
+        <v>132.72499999999999</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10961,7 +10952,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="2"/>
-        <v>133.3125</v>
+        <v>133.35</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -10970,7 +10961,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>132.85</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10979,7 +10970,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="2"/>
-        <v>132.72499999999999</v>
+        <v>133.125</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -10988,7 +10979,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="2"/>
-        <v>133.19999999999999</v>
+        <v>132.07499999999999</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -10997,7 +10988,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="2"/>
-        <v>134.33750000000001</v>
+        <v>133.38749999999999</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -11006,7 +10997,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="2"/>
-        <v>133.21250000000001</v>
+        <v>133.625</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -11015,7 +11006,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="2"/>
-        <v>133.52500000000001</v>
+        <v>133.33750000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -11024,7 +11015,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="2"/>
-        <v>133.22499999999999</v>
+        <v>132.32499999999999</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -11033,7 +11024,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="2"/>
-        <v>132.53749999999999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -11042,7 +11033,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="2"/>
-        <v>132.625</v>
+        <v>134.38749999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -11051,7 +11042,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="2"/>
-        <v>133.02500000000001</v>
+        <v>132.375</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -11060,7 +11051,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>134.38749999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -11069,7 +11060,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="2"/>
-        <v>133.67500000000001</v>
+        <v>133.28749999999999</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -11078,7 +11069,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="2"/>
-        <v>133.48750000000001</v>
+        <v>132.98750000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -11087,7 +11078,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="2"/>
-        <v>133.82499999999999</v>
+        <v>133.125</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -11096,7 +11087,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="2"/>
-        <v>132.32499999999999</v>
+        <v>133.27500000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -11105,7 +11096,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="2"/>
-        <v>133.41249999999999</v>
+        <v>134.03749999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -11114,7 +11105,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="2"/>
-        <v>132.72499999999999</v>
+        <v>133.94999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -11123,7 +11114,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="2"/>
-        <v>134.21250000000001</v>
+        <v>133.48750000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -11132,7 +11123,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="2"/>
-        <v>133.51249999999999</v>
+        <v>133.91249999999999</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -11141,7 +11132,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="2"/>
-        <v>132.92500000000001</v>
+        <v>132.73750000000001</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -11150,7 +11141,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="2"/>
-        <v>133.625</v>
+        <v>133.55000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -11159,7 +11150,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="2"/>
-        <v>132.67500000000001</v>
+        <v>132.88749999999999</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -11168,7 +11159,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="2"/>
-        <v>132.86250000000001</v>
+        <v>133.94999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -11177,7 +11168,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="2"/>
-        <v>133.5625</v>
+        <v>133.47499999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -11186,7 +11177,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="2"/>
-        <v>133.96250000000001</v>
+        <v>132.78749999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -11195,7 +11186,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="2"/>
-        <v>133.125</v>
+        <v>131.9375</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -11204,7 +11195,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="2"/>
-        <v>132.625</v>
+        <v>132.11250000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -11213,7 +11204,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="2"/>
-        <v>133.9375</v>
+        <v>132.77500000000001</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -11222,7 +11213,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="2"/>
-        <v>132.86250000000001</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -11231,7 +11222,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="2"/>
-        <v>131.77500000000001</v>
+        <v>133.96250000000001</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -11240,7 +11231,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="2"/>
-        <v>134.02500000000001</v>
+        <v>133.72499999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
